--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_90.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_90.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,628 +488,666 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.78, 9.74)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(44.3, 67.1)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:39.040000', '0:00:46.100000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1269230769230769</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>jaah_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.153030303030303</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(32.874217, 40.885102)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.922018, 7.703786)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:18.070000', '0:00:19.250000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:06.740000', '0:00:12.160000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.440395, 12.905056)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(232.44, 240.26)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:04.300000', '0:01:05.720000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.07500000000000001</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G', 'D/3', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#/A#', 'C#', 'F#']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.414, 17.044)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(54.48, 59.1)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_77</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1712473572938689</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
+          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.58, 24.94)]</t>
+          <t>[['A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:22.600000', '0:00:29.140000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:49.140000', '0:00:52.960000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2508710801393728</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_13</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1646655231560892</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(56.72, 58.88)]</t>
+          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.939, 3.682)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:13.540000'), ('0:00:08.020000', '0:00:15.100000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:07.870000', '0:00:14.660000'), ('0:00:28.190000', '0:00:36.120000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1358288770053476</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_199</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.06266149870801033</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
+          <t>[['B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(66.74, 74.43)]</t>
+          <t>[['A', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.659045)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:05.682280', '0:00:17.106498')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:03.028463', '0:00:06.708825')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_225</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min/b7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.049, 48.539)]</t>
+          <t>[('0:00:00.220000', '0:00:13.100000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_53</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07690302398331594</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'G']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(80.8, 91.18)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(41.7, 45.42)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb:maj', 'Bb/3', 'C:min'], ['F:maj', 'Bb:maj', 'Bb:maj'], ['Eb:maj', 'Bb:maj', 'Eb:maj'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'B:min'], ['A', 'D', 'D'], ['D', 'A', 'D'], ['D', 'G', 'D']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(83.141, 89.999), (45.697, 59.327), (217.911, 222.528), (38.041, 42.375)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.302076, 23.689106), (12.113959, 16.560579), (11.219991, 14.772644), (46.93228, 54.037586)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1252173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:13.520000', '0:00:51.460000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4211538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_200</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['E:7', 'A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.56, 47.24)]</t>
+          <t>[('0:00:54.620000', '0:01:06.100000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.446618', '0:00:18.139715')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.92, 54.16)]</t>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08175872093023256</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A/b3', 'A/3', 'D']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(59.508331, 64.685555)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(65.369945, 69.520476)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.6, 13.86)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(64.32, 68.27), (25.22, 27.17)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.88, 11.46), (16.24, 18.88)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
